--- a/file/stock-output/history/ddm-interesting-company_info.xlsx
+++ b/file/stock-output/history/ddm-interesting-company_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekala\PycharmProjects\SET-stock-analysis\file\stock-output\history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A57B20-9EFC-4C03-ACAE-05A3A3E8DB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6D4E33-F116-4D29-AF04-ABE6200E9F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9675" yWindow="1620" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10455" yWindow="3630" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company Information" sheetId="1" r:id="rId1"/>
@@ -565,7 +565,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,12 +581,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,14 +612,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,7 +960,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,7 +1101,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
@@ -1163,7 +1156,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
@@ -1339,7 +1332,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
@@ -1350,7 +1343,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
@@ -1361,7 +1354,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
@@ -1471,7 +1464,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
@@ -1515,7 +1508,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
@@ -1526,7 +1519,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
